--- a/Take Home/Tables/1__Selected Lags All Criteria_a110.5_T50.xlsx
+++ b/Take Home/Tables/1__Selected Lags All Criteria_a110.5_T50.xlsx
@@ -471,28 +471,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>806</v>
+        <v>777</v>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -564,28 +564,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
